--- a/result/gr50_04_simulated/details.xlsx
+++ b/result/gr50_04_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3892111778259277</v>
+        <v>0.3651747703552246</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.5240470918943</v>
+        <v>228.0655785106464</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006904423140652486</v>
+        <v>0.007317468195793464</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005921997281459207</v>
+        <v>0.0060838686185918</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00591221136929131</v>
+        <v>0.005472297584576656</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005572956164060778</v>
+        <v>0.005472297584576656</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005534028315603996</v>
+        <v>0.005124048704155246</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005412321043817742</v>
+        <v>0.0050533156769138</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005126741084173279</v>
+        <v>0.004923794576204057</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004909037310578505</v>
+        <v>0.004866361063318834</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00489981976339064</v>
+        <v>0.00478863633447172</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004781689321599119</v>
+        <v>0.00478863633447172</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004781689321599119</v>
+        <v>0.004738758853910806</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004692643341179495</v>
+        <v>0.004689256642850558</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004692643341179495</v>
+        <v>0.00463123908227971</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004692643341179495</v>
+        <v>0.00455334557268839</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004656757324910481</v>
+        <v>0.00455334557268839</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004637375668710899</v>
+        <v>0.004530252364020802</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004611377269160066</v>
+        <v>0.004500651061796064</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004595204564261275</v>
+        <v>0.004473453031385903</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00453788422844795</v>
+        <v>0.004466036502718127</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004532632496918017</v>
+        <v>0.00444572277798531</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4723329544067383</v>
+        <v>0.4374756813049316</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>226.3409166903348</v>
+        <v>234.9109136191473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007345161147762598</v>
+        <v>0.006854461259283044</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006045645088320526</v>
+        <v>0.005830092466304691</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005804477411876296</v>
+        <v>0.005548721327062377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005345313652007113</v>
+        <v>0.005548721327062377</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005312773845893083</v>
+        <v>0.005548721327062377</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005223225955379502</v>
+        <v>0.005208458807797125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005056974756089845</v>
+        <v>0.005139019219384589</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004980481424315503</v>
+        <v>0.005036010929215989</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004847526138203081</v>
+        <v>0.004991048391962181</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004785434500748462</v>
+        <v>0.004862559774808342</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004714734429344884</v>
+        <v>0.004862559774808342</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004630026379784086</v>
+        <v>0.004768257003556728</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004630026379784086</v>
+        <v>0.004755565431364603</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00458400057251493</v>
+        <v>0.004685731512274595</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004550699244982237</v>
+        <v>0.004622698849021052</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004528359056879367</v>
+        <v>0.004622698849021052</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004482271355460809</v>
+        <v>0.004602385601989424</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004447065121551497</v>
+        <v>0.004598205479288067</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004440657949199892</v>
+        <v>0.004584981877047453</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004412103639187812</v>
+        <v>0.004579160109535034</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.480161190032959</v>
+        <v>0.4062740802764893</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>233.1479460294959</v>
+        <v>226.2526246174166</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00691672263998288</v>
+        <v>0.007234092707530699</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006056808217173759</v>
+        <v>0.006284335820055877</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005568385601597864</v>
+        <v>0.005955803728992741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005058726737433279</v>
+        <v>0.005473664674338815</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005058726737433279</v>
+        <v>0.005152333620179397</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00479390432393832</v>
+        <v>0.005114520711548476</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00479390432393832</v>
+        <v>0.004941327030793159</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00479390432393832</v>
+        <v>0.004732470209006531</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00479390432393832</v>
+        <v>0.004669679188246928</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00479390432393832</v>
+        <v>0.004669679188246928</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00479390432393832</v>
+        <v>0.004669679188246928</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004754593304112053</v>
+        <v>0.004540147234083118</v>
       </c>
       <c r="R4" t="n">
-        <v>0.004667610838854347</v>
+        <v>0.004522223036319399</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004667610838854347</v>
+        <v>0.00451472593612016</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004666659720957633</v>
+        <v>0.004510301587480662</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00460754927312225</v>
+        <v>0.004486600924080588</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004577316467596877</v>
+        <v>0.004470507402958979</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00456186786321449</v>
+        <v>0.004441119918072387</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004553452867009171</v>
+        <v>0.004422606320777598</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004544794269580816</v>
+        <v>0.00441038254614847</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4090862274169922</v>
+        <v>0.3593747615814209</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>229.4038369953578</v>
+        <v>228.413687575845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006867840155359442</v>
+        <v>0.007136695655527256</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006080010285328121</v>
+        <v>0.006254006836292634</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005767828603548712</v>
+        <v>0.00577683569309643</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005204497777390997</v>
+        <v>0.005578213332672863</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005204497777390997</v>
+        <v>0.00532610054434813</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005066964106724917</v>
+        <v>0.004926712895819371</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004990401297687625</v>
+        <v>0.004926712895819371</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004897212407681381</v>
+        <v>0.004798100816886849</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004897212407681381</v>
+        <v>0.004798100816886849</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004782633510975974</v>
+        <v>0.004748343004120983</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004628662632010985</v>
+        <v>0.004733619615442868</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004628662632010985</v>
+        <v>0.004666523886144329</v>
       </c>
       <c r="R5" t="n">
-        <v>0.004607229299785365</v>
+        <v>0.004598489349362841</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004607229299785365</v>
+        <v>0.004564065229739627</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00454370721609201</v>
+        <v>0.004535762942153607</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004531885708280599</v>
+        <v>0.004511304077250155</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004510976898075498</v>
+        <v>0.004473545028276416</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004492944166094138</v>
+        <v>0.004473545028276416</v>
       </c>
       <c r="X5" t="n">
-        <v>0.004484622652375707</v>
+        <v>0.004462600901602556</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004471809688018669</v>
+        <v>0.004452508529743565</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4461982250213623</v>
+        <v>0.3906266689300537</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>228.4554218716003</v>
+        <v>228.8258930396678</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007135617363518297</v>
+        <v>0.007337835762981425</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006055837729339412</v>
+        <v>0.006278761131290688</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005604739477739552</v>
+        <v>0.005701230951466495</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005543182571714088</v>
+        <v>0.00556853105381772</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005015068516790951</v>
+        <v>0.005439012448774522</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005015068516790951</v>
+        <v>0.00507026578790495</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004920235506115683</v>
+        <v>0.004980606111552063</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004920235506115683</v>
+        <v>0.004957508191375458</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004920235506115683</v>
+        <v>0.004957508191375458</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004872820030908463</v>
+        <v>0.004916640052115627</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004708358097371789</v>
+        <v>0.004819826142342576</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004673899478860506</v>
+        <v>0.004764944392851003</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004613407592849638</v>
+        <v>0.004632902236873533</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004562532962246979</v>
+        <v>0.004621591858538886</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004538791623982374</v>
+        <v>0.004540205049836205</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004499008781054783</v>
+        <v>0.004540205049836205</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004487666216291099</v>
+        <v>0.004506427043875998</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004482870127690422</v>
+        <v>0.004484830475501378</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004453322063773883</v>
+        <v>0.004474916722642357</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004453322063773883</v>
+        <v>0.004460543723970131</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4400379657745361</v>
+        <v>0.3749992847442627</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>225.1145951121689</v>
+        <v>229.8384626732277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007000880691588387</v>
+        <v>0.007021633181949178</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006207422919569136</v>
+        <v>0.005991655727086207</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005655350604160842</v>
+        <v>0.005572918279442984</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005417817633297762</v>
+        <v>0.005572918279442984</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004971957180992054</v>
+        <v>0.005290486052376275</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004971957180992054</v>
+        <v>0.004999328347213399</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00486058245984714</v>
+        <v>0.004826088602703553</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004819394443244166</v>
+        <v>0.004726302550502507</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004758794264972984</v>
+        <v>0.004708407140275424</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004724042570217642</v>
+        <v>0.004618297977289237</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004656833222218808</v>
+        <v>0.004618297977289237</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004613699488241837</v>
+        <v>0.004618297977289237</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0045421327488396</v>
+        <v>0.004616817058374321</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004535746541282419</v>
+        <v>0.004616817058374321</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004519757612017403</v>
+        <v>0.004580440321890731</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004503277767591682</v>
+        <v>0.004548930233975706</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004441296162659502</v>
+        <v>0.004543886409468342</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004418263623255587</v>
+        <v>0.004531915665950108</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004399761010529359</v>
+        <v>0.004497547734351</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004388198735129997</v>
+        <v>0.00448028192345473</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.395282506942749</v>
+        <v>0.375</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>225.805101930222</v>
+        <v>230.024404374024</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007365913844530322</v>
+        <v>0.007151321207335308</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006007261566403994</v>
+        <v>0.006083332396099871</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00549800922921282</v>
+        <v>0.005649262116197607</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005177617287347379</v>
+        <v>0.005649262116197607</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005177617287347379</v>
+        <v>0.005574198331899159</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004992530646018725</v>
+        <v>0.005259335052285191</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004837417997942645</v>
+        <v>0.00497184835210327</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004837417997942645</v>
+        <v>0.004819238123658451</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004837417997942645</v>
+        <v>0.004819238123658451</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004661440666923349</v>
+        <v>0.004775785842500259</v>
       </c>
       <c r="P8" t="n">
-        <v>0.004632372423224488</v>
+        <v>0.004775785842500259</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004632372423224488</v>
+        <v>0.004690306298701128</v>
       </c>
       <c r="R8" t="n">
-        <v>0.004565822804073668</v>
+        <v>0.004628355234018071</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004525723297633977</v>
+        <v>0.004610931795815387</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004522364516758199</v>
+        <v>0.004593127558167885</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004522230698725921</v>
+        <v>0.004564216154279432</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004472768180827262</v>
+        <v>0.004526425456755759</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004429516379249474</v>
+        <v>0.004483906518012163</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004428588241353919</v>
+        <v>0.004483906518012163</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004401658907021871</v>
+        <v>0.004483906518012163</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3959901332855225</v>
+        <v>0.3593747615814209</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>232.1323429326585</v>
+        <v>231.5373328050591</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0071699422575547</v>
+        <v>0.006877436701719059</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00616689762043873</v>
+        <v>0.005946869273461255</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00589375094072366</v>
+        <v>0.005520102474328858</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005538721803345092</v>
+        <v>0.005520102474328858</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005326109927507956</v>
+        <v>0.005421189613179872</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005065980891206555</v>
+        <v>0.005379677734621238</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005065980891206555</v>
+        <v>0.005181813291549269</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004884489989184352</v>
+        <v>0.004911443709806384</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004884489989184352</v>
+        <v>0.004911443709806384</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004884489989184352</v>
+        <v>0.004911443709806384</v>
       </c>
       <c r="P9" t="n">
-        <v>0.004864267519420202</v>
+        <v>0.004854331496731922</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004778783674277642</v>
+        <v>0.004833146608580668</v>
       </c>
       <c r="R9" t="n">
-        <v>0.004720455458569119</v>
+        <v>0.00474748150220239</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004666614923091336</v>
+        <v>0.004688915594144442</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004651900836093918</v>
+        <v>0.004645436455360851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004611120051582087</v>
+        <v>0.004584365466280129</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004573568902629971</v>
+        <v>0.004584365466280129</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004558865886736784</v>
+        <v>0.004567610292898167</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004541408420784321</v>
+        <v>0.004539308827067346</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004524996938258449</v>
+        <v>0.004513398300293549</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3890609741210938</v>
+        <v>0.3593473434448242</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>222.0161513931907</v>
+        <v>226.9584485397936</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007168177703559328</v>
+        <v>0.007120334999264499</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005867388331340941</v>
+        <v>0.005877682751143919</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005500640696824637</v>
+        <v>0.005724512797741657</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005001403894465515</v>
+        <v>0.005207855372357735</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005001403894465515</v>
+        <v>0.005207855372357735</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005001403894465515</v>
+        <v>0.005207855372357735</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004821146365709041</v>
+        <v>0.005001061439661799</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00470029688857411</v>
+        <v>0.005001061439661799</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00470029688857411</v>
+        <v>0.004825634102335331</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00470029688857411</v>
+        <v>0.004825634102335331</v>
       </c>
       <c r="P10" t="n">
-        <v>0.004646006669400344</v>
+        <v>0.004711551381330428</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004533298901331373</v>
+        <v>0.004700925161609222</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004490028018489536</v>
+        <v>0.004678546245679674</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004428767102455882</v>
+        <v>0.004608545236211677</v>
       </c>
       <c r="T10" t="n">
-        <v>0.004407759808941174</v>
+        <v>0.004551136719668111</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004393338633393437</v>
+        <v>0.004524417887490213</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004377060955148036</v>
+        <v>0.004507486716516283</v>
       </c>
       <c r="W10" t="n">
-        <v>0.00436571003485369</v>
+        <v>0.004460200334910906</v>
       </c>
       <c r="X10" t="n">
-        <v>0.004363553386517123</v>
+        <v>0.004448168102000749</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004327800222089487</v>
+        <v>0.004424141297071999</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5404403209686279</v>
+        <v>0.3906278610229492</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>231.8747201319766</v>
+        <v>227.4362547215569</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007257480023386077</v>
+        <v>0.006948742911768419</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006136911864519702</v>
+        <v>0.006147391144375495</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005722329431713656</v>
+        <v>0.005640368498922989</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005722329431713656</v>
+        <v>0.005379255422924517</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005574256493920068</v>
+        <v>0.005048786077035681</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005271168191949138</v>
+        <v>0.004997053836085855</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004941686325289719</v>
+        <v>0.004997053836085855</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004869837263736486</v>
+        <v>0.004939224388412571</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004869837263736486</v>
+        <v>0.004886902177674242</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004810431856546207</v>
+        <v>0.004814849933728787</v>
       </c>
       <c r="P11" t="n">
-        <v>0.004753093417504154</v>
+        <v>0.004703105578174377</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004753093417504154</v>
+        <v>0.004703105578174377</v>
       </c>
       <c r="R11" t="n">
-        <v>0.004629834631422211</v>
+        <v>0.004634195895024838</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004629834631422211</v>
+        <v>0.004620675524687608</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004629834631422211</v>
+        <v>0.004543923056693063</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004627170659573378</v>
+        <v>0.00451355129015704</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004574098739814364</v>
+        <v>0.004496860348228817</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004568212505987565</v>
+        <v>0.004476861988954355</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004519975051305586</v>
+        <v>0.004459350310820522</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004519975051305586</v>
+        <v>0.004433455257730153</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_04_simulated/details.xlsx
+++ b/result/gr50_04_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3651747703552246</v>
+        <v>0.7750008106231689</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>228.0655785106464</v>
+        <v>219.1298500056891</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007317468195793464</v>
+        <v>0.007179892215417086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0060838686185918</v>
+        <v>0.00607442287755429</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005472297584576656</v>
+        <v>0.005483430338235971</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005472297584576656</v>
+        <v>0.005483430338235971</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005124048704155246</v>
+        <v>0.005170003376302528</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0050533156769138</v>
+        <v>0.005170003376302528</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004923794576204057</v>
+        <v>0.005144581724378415</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004866361063318834</v>
+        <v>0.004898340816651904</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00478863633447172</v>
+        <v>0.004840728140012362</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00478863633447172</v>
+        <v>0.004713596928340103</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004738758853910806</v>
+        <v>0.004629592096009916</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004689256642850558</v>
+        <v>0.004518444276660413</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00463123908227971</v>
+        <v>0.004518444276660413</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00455334557268839</v>
+        <v>0.004417410087141555</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00455334557268839</v>
+        <v>0.004417410087141555</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004530252364020802</v>
+        <v>0.00438545263507949</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004500651061796064</v>
+        <v>0.004311403711929913</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004473453031385903</v>
+        <v>0.004288767552464166</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004466036502718127</v>
+        <v>0.004282140208583759</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00444572277798531</v>
+        <v>0.004271537037147935</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4374756813049316</v>
+        <v>0.7329962253570557</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234.9109136191473</v>
+        <v>219.602085135708</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006854461259283044</v>
+        <v>0.006945981785452513</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005830092466304691</v>
+        <v>0.005476542462444613</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005548721327062377</v>
+        <v>0.005476542462444613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005548721327062377</v>
+        <v>0.005476542462444613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005548721327062377</v>
+        <v>0.005246170697833417</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005208458807797125</v>
+        <v>0.005052969129294182</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005139019219384589</v>
+        <v>0.004983237214659502</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005036010929215989</v>
+        <v>0.004830756944608691</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004991048391962181</v>
+        <v>0.004708135802510487</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004862559774808342</v>
+        <v>0.004708135802510487</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004862559774808342</v>
+        <v>0.004645895182482837</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004768257003556728</v>
+        <v>0.004622096660475992</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004755565431364603</v>
+        <v>0.004398949352436854</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004685731512274595</v>
+        <v>0.004398949352436854</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004622698849021052</v>
+        <v>0.004324790193083907</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004622698849021052</v>
+        <v>0.004324790193083907</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004602385601989424</v>
+        <v>0.004322130424624327</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004598205479288067</v>
+        <v>0.004308949643543376</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004584981877047453</v>
+        <v>0.004286983255948413</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004579160109535034</v>
+        <v>0.004280742400306197</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4062740802764893</v>
+        <v>0.7239871025085449</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>226.2526246174166</v>
+        <v>222.5693178281599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007234092707530699</v>
+        <v>0.007140213844881211</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006284335820055877</v>
+        <v>0.006069224252995707</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005955803728992741</v>
+        <v>0.005610255044257587</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005473664674338815</v>
+        <v>0.005214629930701066</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005152333620179397</v>
+        <v>0.005214629930701066</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005114520711548476</v>
+        <v>0.005042037098638212</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004941327030793159</v>
+        <v>0.004822007471352777</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004732470209006531</v>
+        <v>0.004798560290753556</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004669679188246928</v>
+        <v>0.004793752097648003</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004669679188246928</v>
+        <v>0.00476679833552344</v>
       </c>
       <c r="P4" t="n">
-        <v>0.004669679188246928</v>
+        <v>0.004560687105341132</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004540147234083118</v>
+        <v>0.004560687105341132</v>
       </c>
       <c r="R4" t="n">
-        <v>0.004522223036319399</v>
+        <v>0.004556136341989701</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00451472593612016</v>
+        <v>0.004555006623177957</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004510301587480662</v>
+        <v>0.004470852472555141</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004486600924080588</v>
+        <v>0.004453860239652294</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004470507402958979</v>
+        <v>0.004453860239652294</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004441119918072387</v>
+        <v>0.004363796517886724</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004422606320777598</v>
+        <v>0.004363796517886724</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.00441038254614847</v>
+        <v>0.004338583193531381</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3593747615814209</v>
+        <v>0.7590217590332031</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>228.413687575845</v>
+        <v>224.7271922782857</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007136695655527256</v>
+        <v>0.007179892215417086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006254006836292634</v>
+        <v>0.005948076563753606</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00577683569309643</v>
+        <v>0.005260627160971575</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005578213332672863</v>
+        <v>0.005260627160971575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00532610054434813</v>
+        <v>0.005260627160971575</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004926712895819371</v>
+        <v>0.005227821085808026</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004926712895819371</v>
+        <v>0.004920649726104774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004798100816886849</v>
+        <v>0.004828518542607388</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004798100816886849</v>
+        <v>0.004769368717652309</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004748343004120983</v>
+        <v>0.004754705565014516</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004733619615442868</v>
+        <v>0.004640500072181872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004666523886144329</v>
+        <v>0.00459385493552119</v>
       </c>
       <c r="R5" t="n">
-        <v>0.004598489349362841</v>
+        <v>0.004554862218794075</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004564065229739627</v>
+        <v>0.004554862218794075</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004535762942153607</v>
+        <v>0.004517338553928728</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004511304077250155</v>
+        <v>0.004510804293041485</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004473545028276416</v>
+        <v>0.004486580950692511</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004473545028276416</v>
+        <v>0.004449582558139468</v>
       </c>
       <c r="X5" t="n">
-        <v>0.004462600901602556</v>
+        <v>0.00438064702296853</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004452508529743565</v>
+        <v>0.00438064702296853</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3906266689300537</v>
+        <v>0.8240118026733398</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>228.8258930396678</v>
+        <v>222.0081262425665</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007337835762981425</v>
+        <v>0.006905408613762955</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006278761131290688</v>
+        <v>0.005940872451807314</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005701230951466495</v>
+        <v>0.005286937599900098</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00556853105381772</v>
+        <v>0.005053092989104977</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005439012448774522</v>
+        <v>0.005046603609362579</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00507026578790495</v>
+        <v>0.00486501256702489</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004980606111552063</v>
+        <v>0.00486501256702489</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004957508191375458</v>
+        <v>0.004665114416238332</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004957508191375458</v>
+        <v>0.004620661858181286</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004916640052115627</v>
+        <v>0.004592586815958984</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004819826142342576</v>
+        <v>0.004592586815958984</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004764944392851003</v>
+        <v>0.004592586815958984</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004632902236873533</v>
+        <v>0.004543469278613658</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004621591858538886</v>
+        <v>0.004519737547145789</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004540205049836205</v>
+        <v>0.004486579576314326</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004540205049836205</v>
+        <v>0.004449383001022487</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004506427043875998</v>
+        <v>0.004418218904881575</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004484830475501378</v>
+        <v>0.004381863100337099</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004474916722642357</v>
+        <v>0.004366999538190064</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004460543723970131</v>
+        <v>0.004327643786404804</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3749992847442627</v>
+        <v>0.7579965591430664</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>229.8384626732277</v>
+        <v>221.8984880090284</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007021633181949178</v>
+        <v>0.006849836394723634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005991655727086207</v>
+        <v>0.005977023322952144</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005572918279442984</v>
+        <v>0.005641496864181565</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005572918279442984</v>
+        <v>0.005561738236813441</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005290486052376275</v>
+        <v>0.005434880373669553</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004999328347213399</v>
+        <v>0.004876236048119636</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004826088602703553</v>
+        <v>0.004876236048119636</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004726302550502507</v>
+        <v>0.004846479835872436</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004708407140275424</v>
+        <v>0.004713713007143891</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004618297977289237</v>
+        <v>0.004559276829340798</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004618297977289237</v>
+        <v>0.004549390763049724</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004618297977289237</v>
+        <v>0.004549390763049724</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004616817058374321</v>
+        <v>0.004543994489112092</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004616817058374321</v>
+        <v>0.004422528246314649</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004580440321890731</v>
+        <v>0.004422528246314649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004548930233975706</v>
+        <v>0.004422528246314649</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004543886409468342</v>
+        <v>0.0044147526784698</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004531915665950108</v>
+        <v>0.004395727037281105</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004497547734351</v>
+        <v>0.004347938849371638</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00448028192345473</v>
+        <v>0.004325506588869948</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.375</v>
+        <v>0.9825427532196045</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>230.024404374024</v>
+        <v>226.0407983556415</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007151321207335308</v>
+        <v>0.006793011873349341</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006083332396099871</v>
+        <v>0.005991284036954737</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005649262116197607</v>
+        <v>0.005596642936174102</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005649262116197607</v>
+        <v>0.005320853738428365</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005574198331899159</v>
+        <v>0.005301193635980267</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005259335052285191</v>
+        <v>0.004957853786650304</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00497184835210327</v>
+        <v>0.004896260009063233</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004819238123658451</v>
+        <v>0.004896260009063233</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004819238123658451</v>
+        <v>0.004844525199089713</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004775785842500259</v>
+        <v>0.004836110595201051</v>
       </c>
       <c r="P8" t="n">
-        <v>0.004775785842500259</v>
+        <v>0.0047530172124069</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004690306298701128</v>
+        <v>0.0047530172124069</v>
       </c>
       <c r="R8" t="n">
-        <v>0.004628355234018071</v>
+        <v>0.004641654247031561</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004610931795815387</v>
+        <v>0.004524275613786623</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004593127558167885</v>
+        <v>0.004480591593896532</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004564216154279432</v>
+        <v>0.004480591593896532</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004526425456755759</v>
+        <v>0.004480591593896532</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004483906518012163</v>
+        <v>0.00440625337925227</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004483906518012163</v>
+        <v>0.00440625337925227</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004483906518012163</v>
+        <v>0.00440625337925227</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3593747615814209</v>
+        <v>0.8300018310546875</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>231.5373328050591</v>
+        <v>228.0460978830051</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006877436701719059</v>
+        <v>0.007100698031970441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005946869273461255</v>
+        <v>0.005998565036348722</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005520102474328858</v>
+        <v>0.005794980924414307</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005520102474328858</v>
+        <v>0.005186297634275523</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005421189613179872</v>
+        <v>0.005186297634275523</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005379677734621238</v>
+        <v>0.005140199196278499</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005181813291549269</v>
+        <v>0.004964384731699174</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004911443709806384</v>
+        <v>0.004964384731699174</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004911443709806384</v>
+        <v>0.004834289355263715</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004911443709806384</v>
+        <v>0.004834289355263715</v>
       </c>
       <c r="P9" t="n">
-        <v>0.004854331496731922</v>
+        <v>0.004691388340106782</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004833146608580668</v>
+        <v>0.004608427495743765</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00474748150220239</v>
+        <v>0.004587609157411227</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004688915594144442</v>
+        <v>0.004587609157411227</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004645436455360851</v>
+        <v>0.004587609157411227</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004584365466280129</v>
+        <v>0.004514625665163507</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004584365466280129</v>
+        <v>0.004514625665163507</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004567610292898167</v>
+        <v>0.004514625665163507</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004539308827067346</v>
+        <v>0.00449348331038414</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004513398300293549</v>
+        <v>0.00444534303865507</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3593473434448242</v>
+        <v>0.7560064792633057</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>226.9584485397936</v>
+        <v>219.085237001429</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007120334999264499</v>
+        <v>0.007049674773747626</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005877682751143919</v>
+        <v>0.006230786531379801</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005724512797741657</v>
+        <v>0.005500396363843224</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005207855372357735</v>
+        <v>0.005422556020622016</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005207855372357735</v>
+        <v>0.005286029712903918</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005207855372357735</v>
+        <v>0.004979645791404658</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005001061439661799</v>
+        <v>0.004979645791404658</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005001061439661799</v>
+        <v>0.004915234714416546</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004825634102335331</v>
+        <v>0.004770396603170345</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004825634102335331</v>
+        <v>0.004653188370405039</v>
       </c>
       <c r="P10" t="n">
-        <v>0.004711551381330428</v>
+        <v>0.004617788898394118</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004700925161609222</v>
+        <v>0.004455308931067841</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004678546245679674</v>
+        <v>0.004455308931067841</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004608545236211677</v>
+        <v>0.004455308931067841</v>
       </c>
       <c r="T10" t="n">
-        <v>0.004551136719668111</v>
+        <v>0.004455308931067841</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004524417887490213</v>
+        <v>0.004342063852462543</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004507486716516283</v>
+        <v>0.004342063852462543</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004460200334910906</v>
+        <v>0.004286221662520001</v>
       </c>
       <c r="X10" t="n">
-        <v>0.004448168102000749</v>
+        <v>0.004286221662520001</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004424141297071999</v>
+        <v>0.004270667387942086</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3906278610229492</v>
+        <v>0.7239811420440674</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>227.4362547215569</v>
+        <v>222.277555050392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006948742911768419</v>
+        <v>0.0070113205034393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006147391144375495</v>
+        <v>0.005983212000766911</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005640368498922989</v>
+        <v>0.005759213262856815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005379255422924517</v>
+        <v>0.005296487017556103</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005048786077035681</v>
+        <v>0.005296487017556103</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004997053836085855</v>
+        <v>0.005151643623829331</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004997053836085855</v>
+        <v>0.005125584347232126</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004939224388412571</v>
+        <v>0.004808521021150545</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004886902177674242</v>
+        <v>0.004635722078536997</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004814849933728787</v>
+        <v>0.004635722078536997</v>
       </c>
       <c r="P11" t="n">
-        <v>0.004703105578174377</v>
+        <v>0.004567693541758223</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004703105578174377</v>
+        <v>0.004470808552454414</v>
       </c>
       <c r="R11" t="n">
-        <v>0.004634195895024838</v>
+        <v>0.004470808552454414</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004620675524687608</v>
+        <v>0.004470808552454414</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004543923056693063</v>
+        <v>0.004464119714581672</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00451355129015704</v>
+        <v>0.004406925566519193</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004496860348228817</v>
+        <v>0.004362755924277919</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004476861988954355</v>
+        <v>0.004362755924277919</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004459350310820522</v>
+        <v>0.004352575258936626</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004433455257730153</v>
+        <v>0.004332895809949161</v>
       </c>
     </row>
   </sheetData>
